--- a/data/trans_bre/P2A_fisi_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_fisi_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 3,78</t>
+          <t>-0,21; 3,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 3,91</t>
+          <t>-0,72; 4,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 1,15</t>
+          <t>-3,05; 1,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 5,17</t>
+          <t>-4,35; 5,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 470,24</t>
+          <t>-17,46; 499,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 266,1</t>
+          <t>-29,77; 273,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-72,58; 71,21</t>
+          <t>-73,07; 88,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-60,3; 140,77</t>
+          <t>-51,48; 146,58</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,76</t>
+          <t>-1,34; 1,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 1,6</t>
+          <t>-3,25; 1,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 1,13</t>
+          <t>-2,71; 1,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,05; -2,4</t>
+          <t>-11,14; -2,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,76; 120,0</t>
+          <t>-48,57; 117,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-55,53; 47,04</t>
+          <t>-53,36; 45,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,78; 59,7</t>
+          <t>-64,84; 51,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-82,04; -33,53</t>
+          <t>-81,9; -30,52</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 2,83</t>
+          <t>-2,03; 2,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 4,65</t>
+          <t>-0,77; 4,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 2,26</t>
+          <t>-1,74; 2,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 4,91</t>
+          <t>0,48; 5,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-39,74; 94,93</t>
+          <t>-37,93; 105,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 111,03</t>
+          <t>-12,13; 110,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-38,94; 90,69</t>
+          <t>-38,42; 93,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,73; 222,13</t>
+          <t>6,77; 226,64</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 6,36</t>
+          <t>0,05; 6,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 6,67</t>
+          <t>-0,18; 6,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 2,53</t>
+          <t>-3,61; 2,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 2,83</t>
+          <t>-3,28; 2,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 166,25</t>
+          <t>-1,34; 153,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 133,78</t>
+          <t>-5,13; 122,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-38,73; 47,28</t>
+          <t>-40,04; 44,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,15; 37,93</t>
+          <t>-28,48; 34,6</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 3,04</t>
+          <t>-5,05; 3,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 5,26</t>
+          <t>-3,72; 5,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 8,27</t>
+          <t>0,12; 8,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,47; -2,28</t>
+          <t>-9,19; -2,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-48,03; 44,68</t>
+          <t>-45,65; 48,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,31; 59,63</t>
+          <t>-29,17; 56,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 120,19</t>
+          <t>-0,38; 123,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-49,68; -16,03</t>
+          <t>-50,43; -14,58</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 4,08</t>
+          <t>-2,89; 4,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 5,35</t>
+          <t>-3,2; 5,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,66; 7,0</t>
+          <t>0,44; 6,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,7; 33,91</t>
+          <t>2,85; 30,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,82; 54,03</t>
+          <t>-23,81; 52,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 43,51</t>
+          <t>-19,32; 42,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,01; 114,07</t>
+          <t>4,68; 113,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,36; 193,1</t>
+          <t>12,95; 170,49</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,35</t>
+          <t>-0,01; 2,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,14</t>
+          <t>0,51; 3,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,65</t>
+          <t>0,18; 2,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 11,37</t>
+          <t>-0,59; 11,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 52,82</t>
+          <t>-0,71; 53,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,16; 48,07</t>
+          <t>6,25; 48,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,77; 52,06</t>
+          <t>3,05; 51,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 100,37</t>
+          <t>-5,67; 102,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_fisi_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_fisi_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -635,12 +635,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>103,59%</t>
+          <t>116,01%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>40,61%</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 3,8</t>
+          <t>0,07; 4,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 5,53</t>
+          <t>-2,49; 7,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 499,19</t>
+          <t>-10,37; 531,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-51,48; 146,58</t>
+          <t>-36,45; 284,62</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,24</t>
+          <t>-6,61</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-64,05%</t>
+          <t>-68,66%</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,85</t>
+          <t>-1,25; 2,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,14; -2,32</t>
+          <t>-11,41; -2,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,57; 117,39</t>
+          <t>-44,0; 127,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-81,9; -30,52</t>
+          <t>-85,54; -39,13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>74,11%</t>
+          <t>47,69%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 5,22</t>
+          <t>-0,62; 4,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,77; 226,64</t>
+          <t>-15,34; 174,09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-4,52%</t>
+          <t>17,5%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 2,58</t>
+          <t>-2,45; 6,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,48; 34,6</t>
+          <t>-23,77; 157,08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,76</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-35,31%</t>
+          <t>-35,12%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,19; -2,14</t>
+          <t>-9,09; -2,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-50,43; -14,58</t>
+          <t>-49,92; -14,59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,26</t>
+          <t>29,71</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>-16,11%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>50,36%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>63,96%</t>
+          <t>219,98%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,24</t>
+          <t>-4,37; 4,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 5,14</t>
+          <t>-8,32; 3,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 6,97</t>
+          <t>-3,41; 4,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,85; 30,55</t>
+          <t>-0,27; 65,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 52,44</t>
+          <t>-39,25; 73,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,32; 42,6</t>
+          <t>-47,66; 28,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,68; 113,27</t>
+          <t>-35,12; 80,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,95; 170,49</t>
+          <t>-2,31; 625,51</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>24,32%</t>
+          <t>91,07%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>16,26%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 2,35</t>
+          <t>-4,85; 6,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
+          <t>-2,92; 10,82</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 12,2</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 9,67</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-32,9; 67,57</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-14,75; 93,29</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>21,01; 227,71</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 41,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,78</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5,27</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>25,36%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>24,31%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>24,32%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>50,39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 2,4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>0,51; 3,25</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0,18; 2,52</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 11,11</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-0,71; 53,15</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 20,25</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 54,46</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>6,25; 48,27</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>3,05; 51,21</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-5,67; 102,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-4,4; 205,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P2A_fisi_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_fisi_R-Edad-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad física</t>
+          <t>Hogares con personas con limitación por discapacidad física</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 4,11</t>
+          <t>0,01; 3,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 4,29</t>
+          <t>-0,99; 4,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 1,3</t>
+          <t>-3,33; 1,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 7,08</t>
+          <t>-2,97; 6,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 531,17</t>
+          <t>-10,32; 537,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,77; 273,97</t>
+          <t>-32,0; 278,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-73,07; 88,87</t>
+          <t>-74,83; 78,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-36,45; 284,62</t>
+          <t>-47,48; 264,02</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 2,01</t>
+          <t>-1,45; 1,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,58</t>
+          <t>-3,29; 1,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 1,01</t>
+          <t>-2,58; 1,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,41; -2,81</t>
+          <t>-11,81; -2,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,0; 127,3</t>
+          <t>-47,17; 131,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,36; 45,13</t>
+          <t>-55,43; 35,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-64,84; 51,07</t>
+          <t>-66,07; 57,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-85,54; -39,13</t>
+          <t>-86,31; -41,15</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,86</t>
+          <t>-2,26; 2,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,78</t>
+          <t>-0,74; 4,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 2,4</t>
+          <t>-1,87; 2,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 4,23</t>
+          <t>-0,5; 4,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,93; 105,72</t>
+          <t>-38,89; 93,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 110,11</t>
+          <t>-12,2; 107,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-38,42; 93,07</t>
+          <t>-38,66; 85,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 174,09</t>
+          <t>-10,45; 164,94</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 6,05</t>
+          <t>-0,36; 6,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 6,45</t>
+          <t>0,25; 6,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 2,44</t>
+          <t>-3,28; 2,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 6,46</t>
+          <t>-2,58; 6,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 153,7</t>
+          <t>-6,83; 159,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 122,0</t>
+          <t>1,93; 127,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,04; 44,84</t>
+          <t>-37,44; 41,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,77; 157,08</t>
+          <t>-23,13; 213,69</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 3,16</t>
+          <t>-5,53; 2,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 5,05</t>
+          <t>-3,29; 5,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,12; 8,35</t>
+          <t>0,26; 8,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,09; -2,18</t>
+          <t>-9,49; -1,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-45,65; 48,0</t>
+          <t>-47,12; 33,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,17; 56,67</t>
+          <t>-26,15; 55,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 123,58</t>
+          <t>2,31; 129,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-49,92; -14,59</t>
+          <t>-50,35; -14,24</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 4,47</t>
+          <t>-3,99; 4,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 3,04</t>
+          <t>-8,11; 3,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 4,52</t>
+          <t>-3,2; 4,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 65,52</t>
+          <t>-0,1; 63,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,25; 73,33</t>
+          <t>-36,14; 71,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,66; 28,55</t>
+          <t>-48,2; 31,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-35,12; 80,28</t>
+          <t>-34,77; 84,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 625,51</t>
+          <t>-0,58; 559,78</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 6,06</t>
+          <t>-5,13; 5,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 10,82</t>
+          <t>-2,76; 10,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,25; 12,2</t>
+          <t>0,98; 11,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 9,67</t>
+          <t>-1,08; 9,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-32,9; 67,57</t>
+          <t>-35,16; 67,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,75; 93,29</t>
+          <t>-13,87; 90,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,01; 227,71</t>
+          <t>8,67; 211,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 41,28</t>
+          <t>-3,57; 41,32</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,04; 2,4</t>
+          <t>0,04; 2,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,25</t>
+          <t>0,28; 3,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,52</t>
+          <t>0,15; 2,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 20,25</t>
+          <t>-0,38; 21,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,69; 54,46</t>
+          <t>0,62; 53,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,25; 48,27</t>
+          <t>3,63; 45,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,05; 51,21</t>
+          <t>2,38; 51,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 205,73</t>
+          <t>-3,54; 212,75</t>
         </is>
       </c>
     </row>
